--- a/biology/Botanique/Canavalia_favieri/Canavalia_favieri.xlsx
+++ b/biology/Botanique/Canavalia_favieri/Canavalia_favieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canavalia favieri est une espèce de liane endémique de la famille des Fabaceae. On la trouve en Nouvelle-Calédonie.
 </t>
@@ -513,16 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme une liane volubile, qui peut monter jusqu'au sommet de grands arbres[1]. Elle peut atteindre 10m de longueur[2].
-Feuilles
-Les feuilles, alternes, composées trifoliées, sont brillantes. Leur pointe est un peu recourbée vers le bas[1].
-Fleurs
-Les inflorescences, de 12 à 30 centimètres de longueur, comprennent des fleurs pourpre foncé en forme de bec[1].
-La floraison a lieu toute l'année, avec un pic entre avril et juillet[1].
-Fruits
-Les fruits sont de grosses gousses dont les bords sont un peu plus épais. Elles contiennent 3 à 8 graines[1].
-La fructification a lieu en janvier, mai-juillet et septembre[1].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme une liane volubile, qui peut monter jusqu'au sommet de grands arbres. Elle peut atteindre 10m de longueur.
 </t>
         </is>
       </c>
@@ -548,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On trouve cette espèce dans la forêt sclérophylle (aussi appelée forêt sèche) de Nouvelle-Calédonie. Elle est répartie en de petites populations au Pic Jacob (Dumbéa) et à Oua-Tom (La Foa)[2].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles, alternes, composées trifoliées, sont brillantes. Leur pointe est un peu recourbée vers le bas.
 </t>
         </is>
       </c>
@@ -579,10 +594,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences, de 12 à 30 centimètres de longueur, comprennent des fleurs pourpre foncé en forme de bec.
+La floraison a lieu toute l'année, avec un pic entre avril et juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Canavalia_favieri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canavalia_favieri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont de grosses gousses dont les bords sont un peu plus épais. Elles contiennent 3 à 8 graines.
+La fructification a lieu en janvier, mai-juillet et septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Canavalia_favieri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canavalia_favieri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette espèce dans la forêt sclérophylle (aussi appelée forêt sèche) de Nouvelle-Calédonie. Elle est répartie en de petites populations au Pic Jacob (Dumbéa) et à Oua-Tom (La Foa).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Canavalia_favieri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canavalia_favieri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Risques d'extinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce végétale a failli disparaître peu après sa découverte. Des chercheurs ont toutefois trouvé des graines et l'ont fait reproduire. Ils ont ainsi multiplié l'espèce et l'ont sauvée de la disparition définitive. Elle est actuellement proposée à la vente par certains pépiniéristes, qui valorisent son fort potentiel horticole.
 </t>
